--- a/US/data/EIA/AISI/Historical Data.xlsx
+++ b/US/data/EIA/AISI/Historical Data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DNX3"/>
+  <dimension ref="A1:DOK3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15509,322 +15509,387 @@
       </c>
       <c r="DLM1" s="1" t="inlineStr">
         <is>
+          <t>2020-12-19</t>
+        </is>
+      </c>
+      <c r="DLN1" s="1" t="inlineStr">
+        <is>
+          <t>2020-12-26</t>
+        </is>
+      </c>
+      <c r="DLO1" s="1" t="inlineStr">
+        <is>
           <t>2021-01-02</t>
         </is>
       </c>
-      <c r="DLN1" s="1" t="inlineStr">
+      <c r="DLP1" s="1" t="inlineStr">
         <is>
           <t>2021-01-09</t>
         </is>
       </c>
-      <c r="DLO1" s="1" t="inlineStr">
+      <c r="DLQ1" s="1" t="inlineStr">
         <is>
           <t>2021-01-16</t>
         </is>
       </c>
-      <c r="DLP1" s="1" t="inlineStr">
+      <c r="DLR1" s="1" t="inlineStr">
         <is>
           <t>2021-01-23</t>
         </is>
       </c>
-      <c r="DLQ1" s="1" t="inlineStr">
+      <c r="DLS1" s="1" t="inlineStr">
         <is>
           <t>2021-01-30</t>
         </is>
       </c>
-      <c r="DLR1" s="1" t="inlineStr">
+      <c r="DLT1" s="1" t="inlineStr">
         <is>
           <t>2021-02-06</t>
         </is>
       </c>
-      <c r="DLS1" s="1" t="inlineStr">
+      <c r="DLU1" s="1" t="inlineStr">
         <is>
           <t>2021-02-13</t>
         </is>
       </c>
-      <c r="DLT1" s="1" t="inlineStr">
+      <c r="DLV1" s="1" t="inlineStr">
         <is>
           <t>2021-02-20</t>
         </is>
       </c>
-      <c r="DLU1" s="1" t="inlineStr">
+      <c r="DLW1" s="1" t="inlineStr">
         <is>
           <t>2021-02-27</t>
         </is>
       </c>
-      <c r="DLV1" s="1" t="inlineStr">
+      <c r="DLX1" s="1" t="inlineStr">
         <is>
           <t>2021-03-06</t>
         </is>
       </c>
-      <c r="DLW1" s="1" t="inlineStr">
+      <c r="DLY1" s="1" t="inlineStr">
         <is>
           <t>2021-03-13</t>
         </is>
       </c>
-      <c r="DLX1" s="1" t="inlineStr">
+      <c r="DLZ1" s="1" t="inlineStr">
         <is>
           <t>2021-03-20</t>
         </is>
       </c>
-      <c r="DLY1" s="1" t="inlineStr">
+      <c r="DMA1" s="1" t="inlineStr">
         <is>
           <t>2021-03-27</t>
         </is>
       </c>
-      <c r="DLZ1" s="1" t="inlineStr">
+      <c r="DMB1" s="1" t="inlineStr">
         <is>
           <t>2021-04-03</t>
         </is>
       </c>
-      <c r="DMA1" s="1" t="inlineStr">
+      <c r="DMC1" s="1" t="inlineStr">
         <is>
           <t>2021-04-10</t>
         </is>
       </c>
-      <c r="DMB1" s="1" t="inlineStr">
+      <c r="DMD1" s="1" t="inlineStr">
         <is>
           <t>2021-04-17</t>
         </is>
       </c>
-      <c r="DMC1" s="1" t="inlineStr">
+      <c r="DME1" s="1" t="inlineStr">
         <is>
           <t>2021-04-24</t>
         </is>
       </c>
-      <c r="DMD1" s="1" t="inlineStr">
+      <c r="DMF1" s="1" t="inlineStr">
         <is>
           <t>2021-05-01</t>
         </is>
       </c>
-      <c r="DME1" s="1" t="inlineStr">
+      <c r="DMG1" s="1" t="inlineStr">
         <is>
           <t>2021-05-08</t>
         </is>
       </c>
-      <c r="DMF1" s="1" t="inlineStr">
+      <c r="DMH1" s="1" t="inlineStr">
         <is>
           <t>2021-05-15</t>
         </is>
       </c>
-      <c r="DMG1" s="1" t="inlineStr">
+      <c r="DMI1" s="1" t="inlineStr">
         <is>
           <t>2021-05-22</t>
         </is>
       </c>
-      <c r="DMH1" s="1" t="inlineStr">
+      <c r="DMJ1" s="1" t="inlineStr">
         <is>
           <t>2021-05-29</t>
         </is>
       </c>
-      <c r="DMI1" s="1" t="inlineStr">
+      <c r="DMK1" s="1" t="inlineStr">
         <is>
           <t>2021-06-05</t>
         </is>
       </c>
-      <c r="DMJ1" s="1" t="inlineStr">
+      <c r="DML1" s="1" t="inlineStr">
         <is>
           <t>2021-06-12</t>
         </is>
       </c>
-      <c r="DMK1" s="1" t="inlineStr">
+      <c r="DMM1" s="1" t="inlineStr">
         <is>
           <t>2021-06-19</t>
         </is>
       </c>
-      <c r="DML1" s="1" t="inlineStr">
+      <c r="DMN1" s="1" t="inlineStr">
         <is>
           <t>2021-06-26</t>
         </is>
       </c>
-      <c r="DMM1" s="1" t="inlineStr">
+      <c r="DMO1" s="1" t="inlineStr">
         <is>
           <t>2021-07-03</t>
         </is>
       </c>
-      <c r="DMN1" s="1" t="inlineStr">
+      <c r="DMP1" s="1" t="inlineStr">
         <is>
           <t>2021-07-10</t>
         </is>
       </c>
-      <c r="DMO1" s="1" t="inlineStr">
+      <c r="DMQ1" s="1" t="inlineStr">
         <is>
           <t>2021-07-17</t>
         </is>
       </c>
-      <c r="DMP1" s="1" t="inlineStr">
+      <c r="DMR1" s="1" t="inlineStr">
         <is>
           <t>2021-07-24</t>
         </is>
       </c>
-      <c r="DMQ1" s="1" t="inlineStr">
+      <c r="DMS1" s="1" t="inlineStr">
         <is>
           <t>2021-07-31</t>
         </is>
       </c>
-      <c r="DMR1" s="1" t="inlineStr">
+      <c r="DMT1" s="1" t="inlineStr">
         <is>
           <t>2021-08-07</t>
         </is>
       </c>
-      <c r="DMS1" s="1" t="inlineStr">
+      <c r="DMU1" s="1" t="inlineStr">
         <is>
           <t>2021-08-14</t>
         </is>
       </c>
-      <c r="DMT1" s="1" t="inlineStr">
+      <c r="DMV1" s="1" t="inlineStr">
         <is>
           <t>2021-08-21</t>
         </is>
       </c>
-      <c r="DMU1" s="1" t="inlineStr">
+      <c r="DMW1" s="1" t="inlineStr">
         <is>
           <t>2021-08-28</t>
         </is>
       </c>
-      <c r="DMV1" s="1" t="inlineStr">
+      <c r="DMX1" s="1" t="inlineStr">
         <is>
           <t>2021-09-04</t>
         </is>
       </c>
-      <c r="DMW1" s="1" t="inlineStr">
+      <c r="DMY1" s="1" t="inlineStr">
         <is>
           <t>2021-09-11</t>
         </is>
       </c>
-      <c r="DMX1" s="1" t="inlineStr">
+      <c r="DMZ1" s="1" t="inlineStr">
         <is>
           <t>2021-09-18</t>
         </is>
       </c>
-      <c r="DMY1" s="1" t="inlineStr">
+      <c r="DNA1" s="1" t="inlineStr">
         <is>
           <t>2021-09-25</t>
         </is>
       </c>
-      <c r="DMZ1" s="1" t="inlineStr">
+      <c r="DNB1" s="1" t="inlineStr">
         <is>
           <t>2021-10-02</t>
         </is>
       </c>
-      <c r="DNA1" s="1" t="inlineStr">
+      <c r="DNC1" s="1" t="inlineStr">
         <is>
           <t>2021-10-09</t>
         </is>
       </c>
-      <c r="DNB1" s="1" t="inlineStr">
+      <c r="DND1" s="1" t="inlineStr">
         <is>
           <t>2021-10-16</t>
         </is>
       </c>
-      <c r="DNC1" s="1" t="inlineStr">
+      <c r="DNE1" s="1" t="inlineStr">
         <is>
           <t>2021-10-23</t>
         </is>
       </c>
-      <c r="DND1" s="1" t="inlineStr">
+      <c r="DNF1" s="1" t="inlineStr">
         <is>
           <t>2021-10-30</t>
         </is>
       </c>
-      <c r="DNE1" s="1" t="inlineStr">
+      <c r="DNG1" s="1" t="inlineStr">
         <is>
           <t>2021-11-06</t>
         </is>
       </c>
-      <c r="DNF1" s="1" t="inlineStr">
+      <c r="DNH1" s="1" t="inlineStr">
         <is>
           <t>2021-11-13</t>
         </is>
       </c>
-      <c r="DNG1" s="1" t="inlineStr">
+      <c r="DNI1" s="1" t="inlineStr">
         <is>
           <t>2021-11-20</t>
         </is>
       </c>
-      <c r="DNH1" s="1" t="inlineStr">
+      <c r="DNJ1" s="1" t="inlineStr">
         <is>
           <t>2021-11-27</t>
         </is>
       </c>
-      <c r="DNI1" s="1" t="inlineStr">
+      <c r="DNK1" s="1" t="inlineStr">
         <is>
           <t>2021-12-04</t>
         </is>
       </c>
-      <c r="DNJ1" s="1" t="inlineStr">
+      <c r="DNL1" s="1" t="inlineStr">
         <is>
           <t>2021-12-11</t>
         </is>
       </c>
-      <c r="DNK1" s="1" t="inlineStr">
+      <c r="DNM1" s="1" t="inlineStr">
         <is>
           <t>2021-12-18</t>
         </is>
       </c>
-      <c r="DNL1" s="1" t="inlineStr">
+      <c r="DNN1" s="1" t="inlineStr">
         <is>
           <t>2021-12-25</t>
         </is>
       </c>
-      <c r="DNM1" s="1" t="inlineStr">
+      <c r="DNO1" s="1" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="DNN1" s="1" t="inlineStr">
+      <c r="DNP1" s="1" t="inlineStr">
         <is>
           <t>2022-01-08</t>
         </is>
       </c>
-      <c r="DNO1" s="1" t="inlineStr">
+      <c r="DNQ1" s="1" t="inlineStr">
         <is>
           <t>2022-01-15</t>
         </is>
       </c>
-      <c r="DNP1" s="1" t="inlineStr">
+      <c r="DNR1" s="1" t="inlineStr">
         <is>
           <t>2022-01-22</t>
         </is>
       </c>
-      <c r="DNQ1" s="1" t="inlineStr">
+      <c r="DNS1" s="1" t="inlineStr">
         <is>
           <t>2022-01-29</t>
         </is>
       </c>
-      <c r="DNR1" s="1" t="inlineStr">
+      <c r="DNT1" s="1" t="inlineStr">
         <is>
           <t>2022-02-05</t>
         </is>
       </c>
-      <c r="DNS1" s="1" t="inlineStr">
+      <c r="DNU1" s="1" t="inlineStr">
         <is>
           <t>2022-02-12</t>
         </is>
       </c>
-      <c r="DNT1" s="1" t="inlineStr">
+      <c r="DNV1" s="1" t="inlineStr">
         <is>
           <t>2022-02-19</t>
         </is>
       </c>
-      <c r="DNU1" s="1" t="inlineStr">
+      <c r="DNW1" s="1" t="inlineStr">
         <is>
           <t>2022-02-26</t>
         </is>
       </c>
-      <c r="DNV1" s="1" t="inlineStr">
+      <c r="DNX1" s="1" t="inlineStr">
         <is>
           <t>2022-03-05</t>
         </is>
       </c>
-      <c r="DNW1" s="1" t="inlineStr">
+      <c r="DNY1" s="1" t="inlineStr">
         <is>
           <t>2022-03-12</t>
         </is>
       </c>
-      <c r="DNX1" s="1" t="inlineStr">
+      <c r="DNZ1" s="1" t="inlineStr">
         <is>
           <t>2022-03-19</t>
+        </is>
+      </c>
+      <c r="DOA1" s="1" t="inlineStr">
+        <is>
+          <t>2022-03-26</t>
+        </is>
+      </c>
+      <c r="DOB1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-02</t>
+        </is>
+      </c>
+      <c r="DOC1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-09</t>
+        </is>
+      </c>
+      <c r="DOD1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-16</t>
+        </is>
+      </c>
+      <c r="DOE1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-23</t>
+        </is>
+      </c>
+      <c r="DOF1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-30</t>
+        </is>
+      </c>
+      <c r="DOG1" s="1" t="inlineStr">
+        <is>
+          <t>2022-05-07</t>
+        </is>
+      </c>
+      <c r="DOH1" s="1" t="inlineStr">
+        <is>
+          <t>2022-05-14</t>
+        </is>
+      </c>
+      <c r="DOI1" s="1" t="inlineStr">
+        <is>
+          <t>2022-05-21</t>
+        </is>
+      </c>
+      <c r="DOJ1" s="1" t="inlineStr">
+        <is>
+          <t>2022-05-28</t>
+        </is>
+      </c>
+      <c r="DOK1" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-04</t>
         </is>
       </c>
     </row>
@@ -24922,196 +24987,235 @@
         <v>1567000</v>
       </c>
       <c r="DLM2" t="n">
+        <v>1619000</v>
+      </c>
+      <c r="DLN2" t="n">
+        <v>1600000</v>
+      </c>
+      <c r="DLO2" t="n">
         <v>1650000</v>
       </c>
-      <c r="DLN2" t="n">
+      <c r="DLP2" t="n">
         <v>1709000</v>
       </c>
-      <c r="DLO2" t="n">
+      <c r="DLQ2" t="n">
         <v>1738000</v>
       </c>
-      <c r="DLP2" t="n">
+      <c r="DLR2" t="n">
         <v>1717000</v>
       </c>
-      <c r="DLQ2" t="n">
+      <c r="DLS2" t="n">
         <v>1725000</v>
       </c>
-      <c r="DLR2" t="n">
+      <c r="DLT2" t="n">
         <v>1705000</v>
       </c>
-      <c r="DLS2" t="n">
+      <c r="DLU2" t="n">
         <v>1743000</v>
       </c>
-      <c r="DLT2" t="n">
+      <c r="DLV2" t="n">
         <v>1745000</v>
       </c>
-      <c r="DLU2" t="n">
+      <c r="DLW2" t="n">
         <v>1749000</v>
       </c>
-      <c r="DLV2" t="n">
+      <c r="DLX2" t="n">
         <v>1755000</v>
       </c>
-      <c r="DLW2" t="n">
+      <c r="DLY2" t="n">
         <v>1761000</v>
       </c>
-      <c r="DLX2" t="n">
+      <c r="DLZ2" t="n">
         <v>1753000</v>
       </c>
-      <c r="DLY2" t="n">
+      <c r="DMA2" t="n">
         <v>1760000</v>
       </c>
-      <c r="DLZ2" t="n">
+      <c r="DMB2" t="n">
         <v>1766000</v>
       </c>
-      <c r="DMA2" t="n">
+      <c r="DMC2" t="n">
         <v>1761000</v>
       </c>
-      <c r="DMB2" t="n">
+      <c r="DMD2" t="n">
         <v>1770000</v>
       </c>
-      <c r="DMC2" t="n">
+      <c r="DME2" t="n">
         <v>1781000</v>
       </c>
-      <c r="DMD2" t="n">
+      <c r="DMF2" t="n">
         <v>1788000</v>
       </c>
-      <c r="DME2" t="n">
+      <c r="DMG2" t="n">
         <v>1774000</v>
       </c>
-      <c r="DMF2" t="n">
+      <c r="DMH2" t="n">
         <v>1799000</v>
       </c>
-      <c r="DMG2" t="n">
+      <c r="DMI2" t="n">
         <v>1793000</v>
       </c>
-      <c r="DMH2" t="n">
+      <c r="DMJ2" t="n">
         <v>1836000</v>
       </c>
-      <c r="DMI2" t="n">
+      <c r="DMK2" t="n">
         <v>1840000</v>
       </c>
-      <c r="DMJ2" t="n">
+      <c r="DML2" t="n">
         <v>1834000</v>
       </c>
-      <c r="DMK2" t="n">
+      <c r="DMM2" t="n">
         <v>1839000</v>
       </c>
-      <c r="DML2" t="n">
+      <c r="DMN2" t="n">
         <v>1835000</v>
       </c>
-      <c r="DMM2" t="n">
+      <c r="DMO2" t="n">
         <v>1842000</v>
       </c>
-      <c r="DMN2" t="n">
+      <c r="DMP2" t="n">
         <v>1852000</v>
       </c>
-      <c r="DMO2" t="n">
+      <c r="DMQ2" t="n">
         <v>1859000</v>
       </c>
-      <c r="DMP2" t="n">
+      <c r="DMR2" t="n">
         <v>1868000</v>
       </c>
-      <c r="DMQ2" t="n">
+      <c r="DMS2" t="n">
         <v>1876000</v>
       </c>
-      <c r="DMR2" t="n">
+      <c r="DMT2" t="n">
         <v>1872000</v>
       </c>
-      <c r="DMS2" t="n">
+      <c r="DMU2" t="n">
         <v>1869000</v>
       </c>
-      <c r="DMT2" t="n">
+      <c r="DMV2" t="n">
         <v>1877000</v>
       </c>
-      <c r="DMU2" t="n">
+      <c r="DMW2" t="n">
         <v>1873000</v>
       </c>
-      <c r="DMV2" t="n">
+      <c r="DMX2" t="n">
         <v>1866000</v>
       </c>
-      <c r="DMW2" t="n">
+      <c r="DMY2" t="n">
         <v>1882000</v>
       </c>
-      <c r="DMX2" t="n">
+      <c r="DMZ2" t="n">
         <v>1874000</v>
       </c>
-      <c r="DMY2" t="n">
+      <c r="DNA2" t="n">
         <v>1880000</v>
       </c>
-      <c r="DMZ2" t="n">
+      <c r="DNB2" t="n">
         <v>1872000</v>
       </c>
-      <c r="DNA2" t="n">
+      <c r="DNC2" t="n">
         <v>1858000</v>
       </c>
-      <c r="DNB2" t="n">
+      <c r="DND2" t="n">
         <v>1882000</v>
       </c>
-      <c r="DNC2" t="n">
+      <c r="DNE2" t="n">
         <v>1870000</v>
       </c>
-      <c r="DND2" t="n">
+      <c r="DNF2" t="n">
         <v>1860000</v>
       </c>
-      <c r="DNE2" t="n">
+      <c r="DNG2" t="n">
         <v>1841000</v>
       </c>
-      <c r="DNF2" t="n">
+      <c r="DNH2" t="n">
         <v>1856000</v>
       </c>
-      <c r="DNG2" t="n">
+      <c r="DNI2" t="n">
         <v>1861000</v>
       </c>
-      <c r="DNH2" t="n">
+      <c r="DNJ2" t="n">
         <v>1837000</v>
       </c>
-      <c r="DNI2" t="n">
+      <c r="DNK2" t="n">
         <v>1807000</v>
       </c>
-      <c r="DNJ2" t="n">
+      <c r="DNL2" t="n">
         <v>1818000</v>
       </c>
-      <c r="DNK2" t="n">
+      <c r="DNM2" t="n">
         <v>1805000</v>
       </c>
-      <c r="DNL2" t="n">
+      <c r="DNN2" t="n">
         <v>1802000</v>
       </c>
-      <c r="DNM2" t="n">
+      <c r="DNO2" t="n">
         <v>1785000</v>
       </c>
-      <c r="DNN2" t="n">
+      <c r="DNP2" t="n">
         <v>1813000</v>
       </c>
-      <c r="DNO2" t="n">
+      <c r="DNQ2" t="n">
         <v>1833000</v>
       </c>
-      <c r="DNP2" t="n">
+      <c r="DNR2" t="n">
         <v>1803000</v>
       </c>
-      <c r="DNQ2" t="n">
+      <c r="DNS2" t="n">
         <v>1796000</v>
       </c>
-      <c r="DNR2" t="n">
+      <c r="DNT2" t="n">
         <v>1785000</v>
       </c>
-      <c r="DNS2" t="n">
+      <c r="DNU2" t="n">
         <v>1758000</v>
       </c>
-      <c r="DNT2" t="n">
+      <c r="DNV2" t="n">
         <v>1764000</v>
       </c>
-      <c r="DNU2" t="n">
+      <c r="DNW2" t="n">
         <v>1755000</v>
       </c>
-      <c r="DNV2" t="n">
+      <c r="DNX2" t="n">
         <v>1762000</v>
       </c>
-      <c r="DNW2" t="n">
+      <c r="DNY2" t="n">
         <v>1737000</v>
       </c>
-      <c r="DNX2" t="n">
+      <c r="DNZ2" t="n">
         <v>1742000</v>
+      </c>
+      <c r="DOA2" t="n">
+        <v>1726000</v>
+      </c>
+      <c r="DOB2" t="n">
+        <v>1724000</v>
+      </c>
+      <c r="DOC2" t="n">
+        <v>1739000</v>
+      </c>
+      <c r="DOD2" t="n">
+        <v>1766000</v>
+      </c>
+      <c r="DOE2" t="n">
+        <v>1784000</v>
+      </c>
+      <c r="DOF2" t="n">
+        <v>1775000</v>
+      </c>
+      <c r="DOG2" t="n">
+        <v>1777000</v>
+      </c>
+      <c r="DOH2" t="n">
+        <v>1785000</v>
+      </c>
+      <c r="DOI2" t="n">
+        <v>1789000</v>
+      </c>
+      <c r="DOJ2" t="n">
+        <v>1798000</v>
+      </c>
+      <c r="DOK2" t="n">
+        <v>1781000</v>
       </c>
     </row>
     <row r="3">
@@ -32852,196 +32956,235 @@
         <v>70.90000000000001</v>
       </c>
       <c r="DLM3" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="DLN3" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="DLO3" t="n">
         <v>74.59999999999999</v>
       </c>
-      <c r="DLN3" t="n">
+      <c r="DLP3" t="n">
         <v>75.40000000000001</v>
       </c>
-      <c r="DLO3" t="n">
+      <c r="DLQ3" t="n">
         <v>76.7</v>
       </c>
-      <c r="DLP3" t="n">
+      <c r="DLR3" t="n">
         <v>75.7</v>
       </c>
-      <c r="DLQ3" t="n">
+      <c r="DLS3" t="n">
         <v>76.09999999999999</v>
       </c>
-      <c r="DLR3" t="n">
+      <c r="DLT3" t="n">
         <v>75.2</v>
       </c>
-      <c r="DLS3" t="n">
+      <c r="DLU3" t="n">
         <v>76.90000000000001</v>
       </c>
-      <c r="DLT3" t="n">
+      <c r="DLV3" t="n">
         <v>77</v>
       </c>
-      <c r="DLU3" t="n">
+      <c r="DLW3" t="n">
         <v>77.2</v>
       </c>
-      <c r="DLV3" t="n">
+      <c r="DLX3" t="n">
         <v>77.40000000000001</v>
       </c>
-      <c r="DLW3" t="n">
+      <c r="DLY3" t="n">
         <v>77.7</v>
       </c>
-      <c r="DLX3" t="n">
+      <c r="DLZ3" t="n">
         <v>77.3</v>
-      </c>
-      <c r="DLY3" t="n">
-        <v>77.59999999999999</v>
-      </c>
-      <c r="DLZ3" t="n">
-        <v>77.90000000000001</v>
       </c>
       <c r="DMA3" t="n">
         <v>77.59999999999999</v>
       </c>
       <c r="DMB3" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="DMC3" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="DMD3" t="n">
         <v>78</v>
       </c>
-      <c r="DMC3" t="n">
+      <c r="DME3" t="n">
         <v>78.40000000000001</v>
       </c>
-      <c r="DMD3" t="n">
+      <c r="DMF3" t="n">
         <v>78.7</v>
       </c>
-      <c r="DME3" t="n">
+      <c r="DMG3" t="n">
         <v>78.09999999999999</v>
       </c>
-      <c r="DMF3" t="n">
+      <c r="DMH3" t="n">
         <v>79.2</v>
       </c>
-      <c r="DMG3" t="n">
+      <c r="DMI3" t="n">
         <v>79</v>
       </c>
-      <c r="DMH3" t="n">
+      <c r="DMJ3" t="n">
         <v>81.5</v>
       </c>
-      <c r="DMI3" t="n">
+      <c r="DMK3" t="n">
         <v>82.3</v>
       </c>
-      <c r="DMJ3" t="n">
+      <c r="DML3" t="n">
         <v>82.59999999999999</v>
       </c>
-      <c r="DMK3" t="n">
+      <c r="DMM3" t="n">
         <v>82.90000000000001</v>
       </c>
-      <c r="DML3" t="n">
+      <c r="DMN3" t="n">
         <v>82.7</v>
       </c>
-      <c r="DMM3" t="n">
+      <c r="DMO3" t="n">
         <v>83</v>
       </c>
-      <c r="DMN3" t="n">
+      <c r="DMP3" t="n">
         <v>83.59999999999999</v>
       </c>
-      <c r="DMO3" t="n">
+      <c r="DMQ3" t="n">
         <v>84.09999999999999</v>
       </c>
-      <c r="DMP3" t="n">
+      <c r="DMR3" t="n">
         <v>84.59999999999999</v>
       </c>
-      <c r="DMQ3" t="n">
+      <c r="DMS3" t="n">
         <v>85</v>
       </c>
-      <c r="DMR3" t="n">
+      <c r="DMT3" t="n">
         <v>84.8</v>
       </c>
-      <c r="DMS3" t="n">
+      <c r="DMU3" t="n">
         <v>84.7</v>
       </c>
-      <c r="DMT3" t="n">
+      <c r="DMV3" t="n">
         <v>85</v>
       </c>
-      <c r="DMU3" t="n">
+      <c r="DMW3" t="n">
         <v>84.90000000000001</v>
       </c>
-      <c r="DMV3" t="n">
+      <c r="DMX3" t="n">
         <v>84.5</v>
       </c>
-      <c r="DMW3" t="n">
+      <c r="DMY3" t="n">
         <v>85.3</v>
       </c>
-      <c r="DMX3" t="n">
+      <c r="DMZ3" t="n">
         <v>84.90000000000001</v>
       </c>
-      <c r="DMY3" t="n">
+      <c r="DNA3" t="n">
         <v>85.2</v>
       </c>
-      <c r="DMZ3" t="n">
+      <c r="DNB3" t="n">
         <v>84.8</v>
       </c>
-      <c r="DNA3" t="n">
+      <c r="DNC3" t="n">
         <v>84.2</v>
       </c>
-      <c r="DNB3" t="n">
+      <c r="DND3" t="n">
         <v>85.3</v>
       </c>
-      <c r="DNC3" t="n">
+      <c r="DNE3" t="n">
         <v>84.7</v>
       </c>
-      <c r="DND3" t="n">
+      <c r="DNF3" t="n">
         <v>84.3</v>
       </c>
-      <c r="DNE3" t="n">
+      <c r="DNG3" t="n">
         <v>83.40000000000001</v>
       </c>
-      <c r="DNF3" t="n">
+      <c r="DNH3" t="n">
         <v>84.09999999999999</v>
       </c>
-      <c r="DNG3" t="n">
+      <c r="DNI3" t="n">
         <v>84.3</v>
       </c>
-      <c r="DNH3" t="n">
+      <c r="DNJ3" t="n">
         <v>83.2</v>
       </c>
-      <c r="DNI3" t="n">
+      <c r="DNK3" t="n">
         <v>81.90000000000001</v>
       </c>
-      <c r="DNJ3" t="n">
+      <c r="DNL3" t="n">
         <v>82.40000000000001</v>
       </c>
-      <c r="DNK3" t="n">
+      <c r="DNM3" t="n">
         <v>81.8</v>
       </c>
-      <c r="DNL3" t="n">
+      <c r="DNN3" t="n">
         <v>81.59999999999999</v>
       </c>
-      <c r="DNM3" t="n">
+      <c r="DNO3" t="n">
         <v>80.90000000000001</v>
       </c>
-      <c r="DNN3" t="n">
+      <c r="DNP3" t="n">
         <v>82.3</v>
       </c>
-      <c r="DNO3" t="n">
+      <c r="DNQ3" t="n">
         <v>83.2</v>
       </c>
-      <c r="DNP3" t="n">
+      <c r="DNR3" t="n">
         <v>81.90000000000001</v>
       </c>
-      <c r="DNQ3" t="n">
+      <c r="DNS3" t="n">
         <v>81.59999999999999</v>
       </c>
-      <c r="DNR3" t="n">
+      <c r="DNT3" t="n">
         <v>81.09999999999999</v>
       </c>
-      <c r="DNS3" t="n">
+      <c r="DNU3" t="n">
         <v>79.8</v>
       </c>
-      <c r="DNT3" t="n">
+      <c r="DNV3" t="n">
         <v>80.09999999999999</v>
       </c>
-      <c r="DNU3" t="n">
+      <c r="DNW3" t="n">
         <v>79.7</v>
       </c>
-      <c r="DNV3" t="n">
+      <c r="DNX3" t="n">
         <v>80</v>
       </c>
-      <c r="DNW3" t="n">
+      <c r="DNY3" t="n">
         <v>79.90000000000001</v>
       </c>
-      <c r="DNX3" t="n">
+      <c r="DNZ3" t="n">
         <v>80.2</v>
+      </c>
+      <c r="DOA3" t="n">
+        <v>79.40000000000001</v>
+      </c>
+      <c r="DOB3" t="n">
+        <v>79.3</v>
+      </c>
+      <c r="DOC3" t="n">
+        <v>79.7</v>
+      </c>
+      <c r="DOD3" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="DOE3" t="n">
+        <v>81.7</v>
+      </c>
+      <c r="DOF3" t="n">
+        <v>81.3</v>
+      </c>
+      <c r="DOG3" t="n">
+        <v>81.40000000000001</v>
+      </c>
+      <c r="DOH3" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="DOI3" t="n">
+        <v>82</v>
+      </c>
+      <c r="DOJ3" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="DOK3" t="n">
+        <v>81.59999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/US/data/EIA/AISI/Historical Data.xlsx
+++ b/US/data/EIA/AISI/Historical Data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DOK3"/>
+  <dimension ref="A1:DOM3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15892,6 +15892,16 @@
           <t>2022-06-04</t>
         </is>
       </c>
+      <c r="DOL1" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-11</t>
+        </is>
+      </c>
+      <c r="DOM1" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-18</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -25216,6 +25226,12 @@
       </c>
       <c r="DOK2" t="n">
         <v>1781000</v>
+      </c>
+      <c r="DOL2" t="n">
+        <v>1784000</v>
+      </c>
+      <c r="DOM2" t="n">
+        <v>1758000</v>
       </c>
     </row>
     <row r="3">
@@ -33186,6 +33202,12 @@
       <c r="DOK3" t="n">
         <v>81.59999999999999</v>
       </c>
+      <c r="DOL3" t="n">
+        <v>81.7</v>
+      </c>
+      <c r="DOM3" t="n">
+        <v>80.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
